--- a/biology/Biologie cellulaire et moléculaire/Chromosome_minuscule_double/Chromosome_minuscule_double.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Chromosome_minuscule_double/Chromosome_minuscule_double.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un chromosome minuscule double (en anglais, double minute chromosome) est un fragment chromosomique de toute petite taille dépourvu de centromère. Observés dans un grand nombre de tumeurs humaines (sein, poumon, ovaire, côlon et tumeurs cérébrales), ces chromosomes contiennent fréquemment des oncogènes impliqués dans la résistance aux thérapies anticancéreuses.
  Portail de la biologie cellulaire et moléculaire                     </t>
